--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/components/create_networkBox.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/components/create_networkBox.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21840" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -541,7 +536,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The security group is a kind of distributed virtual firewall with status, which users use to realize IAM to Pod,</t>
+    <t>Security group is a stateful distributed virtual firewall, used to realize the network identity and access management of the Pod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -559,6 +554,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -585,9 +595,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,18 +945,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="35.109375" style="1"/>
+    <col min="1" max="3" width="35.109375" style="1"/>
+    <col min="4" max="4" width="35.109375" style="2"/>
+    <col min="5" max="16384" width="35.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -962,7 +980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -973,7 +991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -984,7 +1002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,7 +1024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1083,7 +1101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1104,10 +1122,12 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B15" numberStoredAsText="1"/>
   </ignoredErrors>
